--- a/profile_info.xlsx
+++ b/profile_info.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>64be512ef1300c8409fb9b64</t>
+          <t>64bead93cc0cc843729f1479</t>
         </is>
       </c>
     </row>

--- a/profile_info.xlsx
+++ b/profile_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,80 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Manas</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Khatri</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Student at IIT Indore</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>64bf7b434f2ffafbacdc6ee8</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Parth</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Deshmukh</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Student at IIT INDORE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>64bf7e8039fcce7e23cc2699</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/profile_info.xlsx
+++ b/profile_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,17 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>_id</t>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>branch</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
         </is>
       </c>
     </row>
@@ -478,32 +488,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vedant</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Dinkar</t>
-        </is>
-      </c>
+          <t>Parth Sharadrao</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Undergraduate Student of CSE at Indian Institute of Technology, Indore</t>
+          <t>Student at IIT INDORE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['Google Developer Student Clubs', 'The Debating Society IIT Indore', 'Model United Nations, IIT Indore']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['Volunteer', 'Volunteer', 'Executive Board Affairs Member']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>64bead93cc0cc843729f1479</t>
+          <t>https://www.linkedin.com/in/parth-deshmukh-b01044277/</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>cse220001057@iiti.ac.in</t>
         </is>
       </c>
     </row>
@@ -515,17 +531,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Manas</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Khatri</t>
-        </is>
-      </c>
+          <t>Parth Sharadrao</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Student at IIT Indore</t>
+          <t>Student at IIT INDORE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -540,7 +552,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>64bf7b434f2ffafbacdc6ee8</t>
+          <t>https://www.linkedin.com/in/parth-deshmukh-b01044277/</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>cse220001057@iiti.ac.in</t>
         </is>
       </c>
     </row>
@@ -552,14 +574,10 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parth</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Deshmukh</t>
-        </is>
-      </c>
+          <t>Parth Sharadrao</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>Student at IIT INDORE</t>
@@ -577,7 +595,103 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>64bf7e8039fcce7e23cc2699</t>
+          <t>https://www.linkedin.com/in/parth-deshmukh-b01044277/</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>cse220001057@iiti.ac.in</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parth Sharadrao</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Student at IIT INDORE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/parth-deshmukh-b01044277/</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>cse220001057@iiti.ac.in</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parth Sharadrao</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Student at IIT INDORE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/parth-deshmukh-b01044277/</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>cse220001057@iiti.ac.in</t>
         </is>
       </c>
     </row>

--- a/profile_info.xlsx
+++ b/profile_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,135 +566,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Parth Sharadrao</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Student at IIT INDORE</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/parth-deshmukh-b01044277/</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>cse220001057@iiti.ac.in</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Parth Sharadrao</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Student at IIT INDORE</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/parth-deshmukh-b01044277/</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>cse220001057@iiti.ac.in</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Parth Sharadrao</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Student at IIT INDORE</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/parth-deshmukh-b01044277/</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>cse220001057@iiti.ac.in</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/profile_info.xlsx
+++ b/profile_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,49 +523,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Parth Sharadrao</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Student at IIT INDORE</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/parth-deshmukh-b01044277/</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>cse220001057@iiti.ac.in</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/profile_info.xlsx
+++ b/profile_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,49 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Parth Sharadrao</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Student at IIT INDORE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/parth-deshmukh-b01044277/</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>cse220001057@iiti.ac.in</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/profile_info.xlsx
+++ b/profile_info.xlsx
@@ -531,13 +531,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parth Sharadrao</t>
+          <t>Mr. Alumni Portal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Student at IIT INDORE</t>
+          <t>Student at Indian Institute of Technology, Indore</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/parth-deshmukh-b01044277/</t>
+          <t>https://www.linkedin.com/in/mr-alumni-portal-407595283/</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>cse220001057@iiti.ac.in</t>
+          <t>mralumniportal@gmail.com</t>
         </is>
       </c>
     </row>

--- a/profile_info.xlsx
+++ b/profile_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,49 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Parth Sharadrao</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Student at IIT INDORE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/parth-deshmukh-b01044277/</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>cse220001057@iiti.ac.in</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/profile_info.xlsx
+++ b/profile_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,21 @@
           <t>email</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>birthday</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>about_me</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>picture</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +537,9 @@
           <t>cse220001057@iiti.ac.in</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -565,6 +583,9 @@
           <t>mralumniportal@gmail.com</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -574,28 +595,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parth Sharadrao</t>
+          <t>Vedant Dinkar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Student at IIT INDORE</t>
+          <t>Undergraduate Student of CSE at Indian Institute of Technology, Indore</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Google Developer Student Clubs', 'The Debating Society IIT Indore', 'Model United Nations, IIT Indore']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Volunteer', 'Volunteer', 'Executive Board Affairs Member']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/parth-deshmukh-b01044277/</t>
+          <t>https://www.linkedin.com/in/vedant-dinkar-a6a4301b9/</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -605,9 +626,66 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>cse220001057@iiti.ac.in</t>
-        </is>
-      </c>
+          <t>cse220001078@iiti.ac.in</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vedant Dinkar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Undergraduate Student of CSE at Indian Institute of Technology, Indore</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['Google Developer Student Clubs', 'The Debating Society IIT Indore', 'Model United Nations, IIT Indore']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['Volunteer', 'Volunteer', 'Executive Board Affairs Member']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/vedant-dinkar-a6a4301b9/</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>cse220001078@iiti.ac.in</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2004-08-10</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>The power is within us...</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
